--- a/UnaDex.xlsx
+++ b/UnaDex.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jay_d\Documents\GitHub\UNAMON\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CED68429-6AFB-446D-BECB-6E1492759E4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7D1D9F6-5AA3-4596-9AF9-BD8509F7D845}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{EE8B6F92-CCFD-4377-9A7C-3895D96D5B3E}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="53">
   <si>
     <t>Udex</t>
   </si>
@@ -120,21 +120,6 @@
     <t>Ice</t>
   </si>
   <si>
-    <t>#011</t>
-  </si>
-  <si>
-    <t>#012</t>
-  </si>
-  <si>
-    <t>#013</t>
-  </si>
-  <si>
-    <t>#014</t>
-  </si>
-  <si>
-    <t>#015</t>
-  </si>
-  <si>
     <t>Marijuadon</t>
   </si>
   <si>
@@ -144,9 +129,6 @@
     <t>Shocksteed</t>
   </si>
   <si>
-    <t>Rock</t>
-  </si>
-  <si>
     <t>Ryno</t>
   </si>
   <si>
@@ -154,6 +136,66 @@
   </si>
   <si>
     <t>Normal</t>
+  </si>
+  <si>
+    <t>Smoglet</t>
+  </si>
+  <si>
+    <t>Ignantom</t>
+  </si>
+  <si>
+    <t>Flopix</t>
+  </si>
+  <si>
+    <t>Marinawk</t>
+  </si>
+  <si>
+    <t>Bug</t>
+  </si>
+  <si>
+    <t>#01</t>
+  </si>
+  <si>
+    <t>#02</t>
+  </si>
+  <si>
+    <t>#03</t>
+  </si>
+  <si>
+    <t>#04</t>
+  </si>
+  <si>
+    <t>#05</t>
+  </si>
+  <si>
+    <t>#06</t>
+  </si>
+  <si>
+    <t>#07</t>
+  </si>
+  <si>
+    <t>#08</t>
+  </si>
+  <si>
+    <t>#09</t>
+  </si>
+  <si>
+    <t>#10</t>
+  </si>
+  <si>
+    <t>#11</t>
+  </si>
+  <si>
+    <t>#12</t>
+  </si>
+  <si>
+    <t>#13</t>
+  </si>
+  <si>
+    <t>#14</t>
+  </si>
+  <si>
+    <t>#15</t>
   </si>
 </sst>
 </file>
@@ -258,7 +300,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -272,9 +314,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -288,12 +327,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -303,47 +336,223 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="46">
+  <dxfs count="36">
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF08030"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF705898"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF6890F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFA890F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF78C850"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8D030"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFA8B820"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFA040A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFA8A878"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF705848"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF85888"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF98D8D8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFB8B8D0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE0C068"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFEE99AC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC03028"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFB8A038"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color theme="0"/>
@@ -360,6 +569,166 @@
       </font>
       <fill>
         <patternFill>
+          <bgColor rgb="FFF08030"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF705898"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF6890F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFA890F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF78C850"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8D030"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFA8B820"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFA040A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFA8A878"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF705848"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF85888"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF98D8D8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFB8B8D0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE0C068"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFEE99AC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC03028"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFB8A038"/>
         </patternFill>
       </fill>
@@ -370,434 +739,7 @@
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFC03028"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFEE99AC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF8D030"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF78C850"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF705898"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE0C068"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFB8B8D0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF98D8D8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF85888"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF705848"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFA8A878"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFA040A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFA8B820"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFA890F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF6890F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF08030"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFA040A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFA8B820"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF8D030"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF78C850"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF6890F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFA890F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF6890F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF08030"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF705898"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
           <bgColor rgb="FF7038F8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFB8A038"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC03028"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFEE99AC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF8D030"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF78C850"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF705898"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE0C068"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFB8B8D0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF98D8D8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF85888"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF705848"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFA8A878"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFA040A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFA8B820"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFA890F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF6890F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF08030"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFA8B820"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1180,252 +1122,267 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D6B0175-8665-4454-B227-92E234480A36}">
-  <dimension ref="A1:F22"/>
+  <dimension ref="B1:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="101" style="13" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="25"/>
-    <col min="3" max="3" width="13.7109375" style="26" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="26" customWidth="1"/>
-    <col min="5" max="6" width="9.140625" style="27"/>
-    <col min="7" max="16384" width="9.140625" style="13"/>
+    <col min="1" max="1" width="101" style="10" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="18"/>
+    <col min="3" max="3" width="13.7109375" style="19" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" style="19" customWidth="1"/>
+    <col min="5" max="6" width="9.140625" style="20"/>
+    <col min="7" max="16384" width="9.140625" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
     </row>
     <row r="2" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-    </row>
-    <row r="3" spans="2:6" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="18" t="s">
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+    </row>
+    <row r="3" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="D3" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="20" t="s">
+      <c r="E3" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="20"/>
-    </row>
-    <row r="4" spans="2:6" s="15" customFormat="1" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="20" t="s">
+      <c r="F3" s="21"/>
+    </row>
+    <row r="4" spans="2:6" s="12" customFormat="1" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="20"/>
     </row>
     <row r="5" spans="2:6" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22" t="s">
+      <c r="B5" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="19" t="s">
+      <c r="E5" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="19" t="s">
+      <c r="F5" s="14" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="6" spans="2:6" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="19" t="s">
+      <c r="B6" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="19" t="s">
+      <c r="F6" s="14" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="7" spans="2:6" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="23" t="s">
+      <c r="B7" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="24"/>
     </row>
     <row r="8" spans="2:6" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22" t="s">
+      <c r="B8" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="19" t="s">
+      <c r="E8" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="19" t="s">
+      <c r="F8" s="14" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="9" spans="2:6" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="19" t="s">
+      <c r="B9" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="19" t="s">
+      <c r="F9" s="14" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="10" spans="2:6" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="F10" s="24"/>
+      <c r="B10" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="11" spans="2:6" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11" s="19" t="s">
+      <c r="B11" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="17"/>
+      <c r="E11" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="F11" s="19" t="s">
-        <v>35</v>
-      </c>
     </row>
     <row r="12" spans="2:6" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="19" t="s">
+      <c r="B12" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="F12" s="19" t="s">
-        <v>35</v>
-      </c>
     </row>
     <row r="13" spans="2:6" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22" t="s">
+      <c r="B13" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E13" s="19" t="s">
+      <c r="E13" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="F13" s="19" t="s">
+      <c r="F13" s="14" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="14" spans="2:6" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="21" t="s">
+      <c r="B14" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="F14" s="19" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="21" t="s">
+      <c r="E16" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="F16" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="23" t="s">
+    </row>
+    <row r="17" spans="2:6" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F17" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="F15" s="24"/>
-    </row>
-    <row r="16" spans="2:6" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22" t="s">
+    </row>
+    <row r="18" spans="2:6" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E18" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="E16" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="F16" s="19" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="E17" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="F17" s="19" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="21" t="s">
+      <c r="F18" s="14" t="s">
         <v>31</v>
-      </c>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="E18" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="F18" s="19" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="19" spans="2:6" ht="69.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1433,69 +1390,65 @@
     <row r="21" spans="2:6" ht="69.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="22" spans="2:6" ht="69.95" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="E15:F15"/>
+  <mergeCells count="2">
     <mergeCell ref="E3:F3"/>
-    <mergeCell ref="E4:F4"/>
     <mergeCell ref="B1:F2"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E10:F10"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="A1:XFD14 A16:XFD1048576 A15:E15 G15:XFD15">
-    <cfRule type="containsText" dxfId="44" priority="19" operator="containsText" text="Fire">
+  <conditionalFormatting sqref="A19:XFD1048576 E11:XFD11 A1:XFD4 C5:XFD10 C11 C12:XFD18 A5:B18">
+    <cfRule type="containsText" dxfId="35" priority="1" operator="containsText" text="Dragon">
+      <formula>NOT(ISERROR(SEARCH("Dragon",A1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="34" priority="2" operator="containsText" text="Rock">
+      <formula>NOT(ISERROR(SEARCH("Rock",A1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="33" priority="3" operator="containsText" text="Fighting">
+      <formula>NOT(ISERROR(SEARCH("Fighting",A1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="32" priority="4" operator="containsText" text="Fairy">
+      <formula>NOT(ISERROR(SEARCH("Fairy",A1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="31" priority="5" operator="containsText" text="Ground">
+      <formula>NOT(ISERROR(SEARCH("Ground",A1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="30" priority="6" operator="containsText" text="Steel">
+      <formula>NOT(ISERROR(SEARCH("Steel",A1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="29" priority="7" operator="containsText" text="Ice">
+      <formula>NOT(ISERROR(SEARCH("Ice",A1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="28" priority="8" operator="containsText" text="Psychic">
+      <formula>NOT(ISERROR(SEARCH("Psychic",A1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="27" priority="9" operator="containsText" text="Dark">
+      <formula>NOT(ISERROR(SEARCH("Dark",A1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="26" priority="10" operator="containsText" text="Normal">
+      <formula>NOT(ISERROR(SEARCH("Normal",A1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="25" priority="11" operator="containsText" text="Poison">
+      <formula>NOT(ISERROR(SEARCH("Poison",A1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="24" priority="12" operator="containsText" text="Bug">
+      <formula>NOT(ISERROR(SEARCH("Bug",A1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="23" priority="13" operator="containsText" text="Electric">
+      <formula>NOT(ISERROR(SEARCH("Electric",A1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="22" priority="14" operator="containsText" text="Grass">
+      <formula>NOT(ISERROR(SEARCH("Grass",A1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="21" priority="15" operator="containsText" text="Flying">
+      <formula>NOT(ISERROR(SEARCH("Flying",A1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="20" priority="16" operator="containsText" text="Water">
+      <formula>NOT(ISERROR(SEARCH("Water",A1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="19" priority="18" operator="containsText" text="Ghost">
+      <formula>NOT(ISERROR(SEARCH("Ghost",A1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="18" priority="19" operator="containsText" text="Fire">
       <formula>NOT(ISERROR(SEARCH("Fire",A1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="43" priority="16" operator="containsText" text="Water">
-      <formula>NOT(ISERROR(SEARCH("Water",A1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="42" priority="15" operator="containsText" text="Flying">
-      <formula>NOT(ISERROR(SEARCH("Flying",A1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="41" priority="12" operator="containsText" text="Bug">
-      <formula>NOT(ISERROR(SEARCH("Bug",A1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="40" priority="11" operator="containsText" text="Poison">
-      <formula>NOT(ISERROR(SEARCH("Poison",A1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="39" priority="10" operator="containsText" text="Normal">
-      <formula>NOT(ISERROR(SEARCH("Normal",A1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="38" priority="9" operator="containsText" text="Dark">
-      <formula>NOT(ISERROR(SEARCH("Dark",A1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="37" priority="8" operator="containsText" text="Psychic">
-      <formula>NOT(ISERROR(SEARCH("Psychic",A1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="36" priority="7" operator="containsText" text="Ice">
-      <formula>NOT(ISERROR(SEARCH("Ice",A1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="35" priority="6" operator="containsText" text="Steel">
-      <formula>NOT(ISERROR(SEARCH("Steel",A1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="34" priority="5" operator="containsText" text="Ground">
-      <formula>NOT(ISERROR(SEARCH("Ground",A1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="33" priority="18" operator="containsText" text="Ghost">
-      <formula>NOT(ISERROR(SEARCH("Ghost",A1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="32" priority="14" operator="containsText" text="Grass">
-      <formula>NOT(ISERROR(SEARCH("Grass",A1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="31" priority="13" operator="containsText" text="Electric">
-      <formula>NOT(ISERROR(SEARCH("Electric",A1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="30" priority="4" operator="containsText" text="Fairy">
-      <formula>NOT(ISERROR(SEARCH("Fairy",A1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="29" priority="3" operator="containsText" text="Fighting">
-      <formula>NOT(ISERROR(SEARCH("Fighting",A1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="28" priority="2" operator="containsText" text="Rock">
-      <formula>NOT(ISERROR(SEARCH("Rock",A1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="27" priority="1" operator="containsText" text="Dragon">
-      <formula>NOT(ISERROR(SEARCH("Dragon",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1514,32 +1467,32 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="101" style="13" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="8"/>
-    <col min="3" max="3" width="15.7109375" style="10" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="10" customWidth="1"/>
-    <col min="5" max="6" width="9.140625" style="9"/>
-    <col min="7" max="28" width="9.140625" style="13"/>
+    <col min="1" max="1" width="101" style="10" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="7"/>
+    <col min="3" max="3" width="15.7109375" style="9" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" style="9" customWidth="1"/>
+    <col min="5" max="6" width="9.140625" style="8"/>
+    <col min="7" max="28" width="9.140625" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
     </row>
     <row r="3" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="14"/>
+      <c r="A3" s="11"/>
       <c r="B3" s="3" t="s">
         <v>0</v>
       </c>
@@ -1549,185 +1502,185 @@
       <c r="D3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="14"/>
-      <c r="O3" s="14"/>
-      <c r="P3" s="14"/>
-      <c r="Q3" s="14"/>
-      <c r="R3" s="14"/>
-      <c r="S3" s="14"/>
-      <c r="T3" s="14"/>
-      <c r="U3" s="14"/>
-      <c r="V3" s="14"/>
-      <c r="W3" s="14"/>
-      <c r="X3" s="14"/>
-      <c r="Y3" s="14"/>
-      <c r="Z3" s="14"/>
-      <c r="AA3" s="14"/>
-      <c r="AB3" s="14"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="11"/>
+      <c r="P3" s="11"/>
+      <c r="Q3" s="11"/>
+      <c r="R3" s="11"/>
+      <c r="S3" s="11"/>
+      <c r="T3" s="11"/>
+      <c r="U3" s="11"/>
+      <c r="V3" s="11"/>
+      <c r="W3" s="11"/>
+      <c r="X3" s="11"/>
+      <c r="Y3" s="11"/>
+      <c r="Z3" s="11"/>
+      <c r="AA3" s="11"/>
+      <c r="AB3" s="11"/>
     </row>
     <row r="4" spans="1:28" s="1" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="15"/>
-      <c r="B4" s="6" t="s">
+      <c r="A4" s="12"/>
+      <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="15"/>
-      <c r="N4" s="15"/>
-      <c r="O4" s="15"/>
-      <c r="P4" s="15"/>
-      <c r="Q4" s="15"/>
-      <c r="R4" s="15"/>
-      <c r="S4" s="15"/>
-      <c r="T4" s="15"/>
-      <c r="U4" s="15"/>
-      <c r="V4" s="15"/>
-      <c r="W4" s="15"/>
-      <c r="X4" s="15"/>
-      <c r="Y4" s="15"/>
-      <c r="Z4" s="15"/>
-      <c r="AA4" s="15"/>
-      <c r="AB4" s="15"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="12"/>
+      <c r="O4" s="12"/>
+      <c r="P4" s="12"/>
+      <c r="Q4" s="12"/>
+      <c r="R4" s="12"/>
+      <c r="S4" s="12"/>
+      <c r="T4" s="12"/>
+      <c r="U4" s="12"/>
+      <c r="V4" s="12"/>
+      <c r="W4" s="12"/>
+      <c r="X4" s="12"/>
+      <c r="Y4" s="12"/>
+      <c r="Z4" s="12"/>
+      <c r="AA4" s="12"/>
+      <c r="AB4" s="12"/>
     </row>
     <row r="5" spans="1:28" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
     </row>
     <row r="6" spans="1:28" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
     </row>
     <row r="7" spans="1:28" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="12"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="26"/>
     </row>
     <row r="8" spans="1:28" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
     </row>
     <row r="9" spans="1:28" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
     </row>
     <row r="10" spans="1:28" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="12"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="26"/>
     </row>
     <row r="11" spans="1:28" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
     </row>
     <row r="12" spans="1:28" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
     </row>
     <row r="13" spans="1:28" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
     </row>
     <row r="14" spans="1:28" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="6"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
     </row>
     <row r="15" spans="1:28" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="6"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
     </row>
     <row r="16" spans="1:28" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="6"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
     </row>
     <row r="17" spans="2:6" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="6"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
     </row>
     <row r="18" spans="2:6" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="6"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
     </row>
     <row r="19" spans="2:6" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="6"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
     </row>
@@ -1743,58 +1696,58 @@
     <mergeCell ref="E10:F10"/>
   </mergeCells>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="Dragon">
+    <cfRule type="containsText" dxfId="17" priority="1" operator="containsText" text="Dragon">
       <formula>NOT(ISERROR(SEARCH("Dragon",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="Rock">
+    <cfRule type="containsText" dxfId="16" priority="2" operator="containsText" text="Rock">
       <formula>NOT(ISERROR(SEARCH("Rock",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="Fighting">
+    <cfRule type="containsText" dxfId="15" priority="3" operator="containsText" text="Fighting">
       <formula>NOT(ISERROR(SEARCH("Fighting",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="Fairy">
+    <cfRule type="containsText" dxfId="14" priority="4" operator="containsText" text="Fairy">
       <formula>NOT(ISERROR(SEARCH("Fairy",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="5" operator="containsText" text="Ground">
+    <cfRule type="containsText" dxfId="13" priority="5" operator="containsText" text="Ground">
       <formula>NOT(ISERROR(SEARCH("Ground",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="6" operator="containsText" text="Steel">
+    <cfRule type="containsText" dxfId="12" priority="6" operator="containsText" text="Steel">
       <formula>NOT(ISERROR(SEARCH("Steel",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="7" operator="containsText" text="Ice">
+    <cfRule type="containsText" dxfId="11" priority="7" operator="containsText" text="Ice">
       <formula>NOT(ISERROR(SEARCH("Ice",A1)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="10" priority="8" operator="containsText" text="Psychic">
       <formula>NOT(ISERROR(SEARCH("Psychic",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="11" priority="9" operator="containsText" text="Dark">
+    <cfRule type="containsText" dxfId="9" priority="9" operator="containsText" text="Dark">
       <formula>NOT(ISERROR(SEARCH("Dark",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="10" operator="containsText" text="Normal">
+    <cfRule type="containsText" dxfId="8" priority="10" operator="containsText" text="Normal">
       <formula>NOT(ISERROR(SEARCH("Normal",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="11" operator="containsText" text="Poison">
+    <cfRule type="containsText" dxfId="7" priority="11" operator="containsText" text="Poison">
       <formula>NOT(ISERROR(SEARCH("Poison",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="12" operator="containsText" text="Bug">
+    <cfRule type="containsText" dxfId="6" priority="12" operator="containsText" text="Bug">
       <formula>NOT(ISERROR(SEARCH("Bug",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="13" operator="containsText" text="Electric">
+    <cfRule type="containsText" dxfId="5" priority="13" operator="containsText" text="Electric">
       <formula>NOT(ISERROR(SEARCH("Electric",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="14" operator="containsText" text="Grass">
+    <cfRule type="containsText" dxfId="4" priority="14" operator="containsText" text="Grass">
       <formula>NOT(ISERROR(SEARCH("Grass",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="15" operator="containsText" text="Flying">
+    <cfRule type="containsText" dxfId="3" priority="15" operator="containsText" text="Flying">
       <formula>NOT(ISERROR(SEARCH("Flying",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="16" operator="containsText" text="Water">
+    <cfRule type="containsText" dxfId="2" priority="16" operator="containsText" text="Water">
       <formula>NOT(ISERROR(SEARCH("Water",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="17" operator="containsText" text="Ghost">
+    <cfRule type="containsText" dxfId="1" priority="17" operator="containsText" text="Ghost">
       <formula>NOT(ISERROR(SEARCH("Ghost",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="17" priority="18" operator="containsText" text="Fire">
+    <cfRule type="containsText" dxfId="0" priority="18" operator="containsText" text="Fire">
       <formula>NOT(ISERROR(SEARCH("Fire",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
